--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK_306.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13621BB-1004-45C0-AC10-1ABD84B93B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D23D68-9282-472F-A496-28818123F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -170,13 +170,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -498,105 +498,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -626,7 +626,9 @@
       <c r="L5" s="2">
         <v>9</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>9</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -635,9 +637,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -665,7 +667,9 @@
       <c r="L6" s="2">
         <v>10</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>17</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -674,9 +678,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -733,10 +737,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -761,7 +765,9 @@
       <c r="L8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -776,10 +782,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -804,7 +810,9 @@
       <c r="L9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -819,10 +827,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -847,7 +855,9 @@
       <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -862,10 +872,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -890,7 +900,9 @@
       <c r="L11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -905,10 +917,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -933,7 +945,9 @@
       <c r="L12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -944,6 +958,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -951,11 +970,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK_306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D23D68-9282-472F-A496-28818123F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB77FFA-515E-49FB-AC64-78C3ACFC23CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -170,13 +170,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="V10" sqref="V9:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -498,105 +498,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -629,7 +629,9 @@
       <c r="M5" s="2">
         <v>9</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -637,9 +639,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -670,7 +672,9 @@
       <c r="M6" s="2">
         <v>17</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>24</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -678,9 +682,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -737,10 +741,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -768,7 +772,9 @@
       <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -782,10 +788,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -813,7 +819,9 @@
       <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -827,10 +835,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -858,7 +866,9 @@
       <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -872,10 +882,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -903,7 +913,9 @@
       <c r="M11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -917,10 +929,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -948,7 +960,9 @@
       <c r="M12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -958,11 +972,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -970,6 +979,11 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK_306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB77FFA-515E-49FB-AC64-78C3ACFC23CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FE629-F403-4ECD-83DC-6D4B1E812047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -170,13 +170,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V9:W10"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -498,105 +498,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -632,16 +632,20 @@
       <c r="N5" s="2">
         <v>9</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="2">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -675,16 +679,20 @@
       <c r="N6" s="2">
         <v>24</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>8</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,10 +749,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -775,8 +783,12 @@
       <c r="N8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="O8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -788,10 +800,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -822,8 +834,12 @@
       <c r="N9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="O9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -835,10 +851,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -869,8 +885,12 @@
       <c r="N10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="O10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -882,10 +902,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -916,8 +936,12 @@
       <c r="N11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -929,10 +953,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -963,8 +987,12 @@
       <c r="N12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="O12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -972,6 +1000,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -979,11 +1012,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
